--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -441,67 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
     </row>
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -558,43 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -604,43 +604,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -788,43 +788,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -880,43 +880,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -926,43 +926,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -972,43 +972,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1018,43 +1018,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1064,43 +1064,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1110,43 +1110,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N15" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1156,43 +1156,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N16" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -1294,43 +1294,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1340,43 +1340,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1386,43 +1386,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1432,43 +1432,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1478,43 +1478,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1524,43 +1524,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1570,43 +1570,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1616,43 +1616,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1717,34 +1717,34 @@
         <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1800,43 +1800,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1846,43 +1846,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1956,25 +1956,25 @@
         <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2214,43 +2214,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2260,43 +2260,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2306,43 +2306,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2490,43 +2490,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -2536,19 +2536,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D46" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F46" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>87</v>
@@ -2582,43 +2582,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -2628,43 +2628,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2766,43 +2766,43 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2812,43 +2812,43 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2858,43 +2858,43 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2950,43 +2950,43 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2996,43 +2996,43 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3088,43 +3088,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N58" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -3134,43 +3134,43 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N59" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -3318,43 +3318,43 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3410,43 +3410,43 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3502,43 +3502,43 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3594,43 +3594,43 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N69" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -3640,43 +3640,43 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -3870,43 +3870,43 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N75" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -3916,43 +3916,43 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3962,43 +3962,43 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -4054,43 +4054,43 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N79" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -4284,43 +4284,43 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N84" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -4514,43 +4514,43 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N89" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -4606,43 +4606,43 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N91" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4652,43 +4652,43 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N92" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93">
@@ -4698,43 +4698,43 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="N93" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
@@ -4744,43 +4744,43 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N94" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
@@ -4790,43 +4790,43 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N95" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -4836,43 +4836,43 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N96" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
@@ -4882,43 +4882,43 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N97" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
@@ -4974,43 +4974,43 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G99" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N99" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100">
@@ -5020,43 +5020,43 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N100" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
@@ -5066,43 +5066,43 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N101" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -5112,43 +5112,43 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -5158,43 +5158,43 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-06</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-09</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2025-06-11</t>
         </is>
@@ -541,15 +526,6 @@
       <c r="K2" t="n">
         <v>25</v>
       </c>
-      <c r="L2" t="n">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -587,15 +563,6 @@
       <c r="K3" t="n">
         <v>58</v>
       </c>
-      <c r="L3" t="n">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>58</v>
-      </c>
-      <c r="N3" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -633,15 +600,6 @@
       <c r="K4" t="n">
         <v>33</v>
       </c>
-      <c r="L4" t="n">
-        <v>33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -679,15 +637,6 @@
       <c r="K5" t="n">
         <v>21</v>
       </c>
-      <c r="L5" t="n">
-        <v>21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>21</v>
-      </c>
-      <c r="N5" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -725,15 +674,6 @@
       <c r="K6" t="n">
         <v>43</v>
       </c>
-      <c r="L6" t="n">
-        <v>43</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -771,15 +711,6 @@
       <c r="K7" t="n">
         <v>30</v>
       </c>
-      <c r="L7" t="n">
-        <v>30</v>
-      </c>
-      <c r="M7" t="n">
-        <v>30</v>
-      </c>
-      <c r="N7" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -817,15 +748,6 @@
       <c r="K8" t="n">
         <v>32</v>
       </c>
-      <c r="L8" t="n">
-        <v>32</v>
-      </c>
-      <c r="M8" t="n">
-        <v>32</v>
-      </c>
-      <c r="N8" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -863,15 +785,6 @@
       <c r="K9" t="n">
         <v>32</v>
       </c>
-      <c r="L9" t="n">
-        <v>32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>32</v>
-      </c>
-      <c r="N9" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -909,15 +822,6 @@
       <c r="K10" t="n">
         <v>27</v>
       </c>
-      <c r="L10" t="n">
-        <v>27</v>
-      </c>
-      <c r="M10" t="n">
-        <v>27</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -955,15 +859,6 @@
       <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="L11" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1001,15 +896,6 @@
       <c r="K12" t="n">
         <v>20</v>
       </c>
-      <c r="L12" t="n">
-        <v>20</v>
-      </c>
-      <c r="M12" t="n">
-        <v>20</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1047,15 +933,6 @@
       <c r="K13" t="n">
         <v>17</v>
       </c>
-      <c r="L13" t="n">
-        <v>17</v>
-      </c>
-      <c r="M13" t="n">
-        <v>17</v>
-      </c>
-      <c r="N13" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1093,15 +970,6 @@
       <c r="K14" t="n">
         <v>31</v>
       </c>
-      <c r="L14" t="n">
-        <v>31</v>
-      </c>
-      <c r="M14" t="n">
-        <v>31</v>
-      </c>
-      <c r="N14" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1139,15 +1007,6 @@
       <c r="K15" t="n">
         <v>105</v>
       </c>
-      <c r="L15" t="n">
-        <v>105</v>
-      </c>
-      <c r="M15" t="n">
-        <v>105</v>
-      </c>
-      <c r="N15" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1185,15 +1044,6 @@
       <c r="K16" t="n">
         <v>52</v>
       </c>
-      <c r="L16" t="n">
-        <v>52</v>
-      </c>
-      <c r="M16" t="n">
-        <v>52</v>
-      </c>
-      <c r="N16" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1231,15 +1081,6 @@
       <c r="K17" t="n">
         <v>5</v>
       </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1277,15 +1118,6 @@
       <c r="K18" t="n">
         <v>18</v>
       </c>
-      <c r="L18" t="n">
-        <v>18</v>
-      </c>
-      <c r="M18" t="n">
-        <v>18</v>
-      </c>
-      <c r="N18" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1323,15 +1155,6 @@
       <c r="K19" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1369,15 +1192,6 @@
       <c r="K20" t="n">
         <v>8</v>
       </c>
-      <c r="L20" t="n">
-        <v>8</v>
-      </c>
-      <c r="M20" t="n">
-        <v>8</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1415,15 +1229,6 @@
       <c r="K21" t="n">
         <v>12</v>
       </c>
-      <c r="L21" t="n">
-        <v>12</v>
-      </c>
-      <c r="M21" t="n">
-        <v>12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1461,15 +1266,6 @@
       <c r="K22" t="n">
         <v>10</v>
       </c>
-      <c r="L22" t="n">
-        <v>10</v>
-      </c>
-      <c r="M22" t="n">
-        <v>10</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1507,15 +1303,6 @@
       <c r="K23" t="n">
         <v>25</v>
       </c>
-      <c r="L23" t="n">
-        <v>25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>25</v>
-      </c>
-      <c r="N23" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1553,15 +1340,6 @@
       <c r="K24" t="n">
         <v>25</v>
       </c>
-      <c r="L24" t="n">
-        <v>25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>25</v>
-      </c>
-      <c r="N24" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1599,15 +1377,6 @@
       <c r="K25" t="n">
         <v>34</v>
       </c>
-      <c r="L25" t="n">
-        <v>34</v>
-      </c>
-      <c r="M25" t="n">
-        <v>34</v>
-      </c>
-      <c r="N25" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1645,15 +1414,6 @@
       <c r="K26" t="n">
         <v>2</v>
       </c>
-      <c r="L26" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1691,15 +1451,6 @@
       <c r="K27" t="n">
         <v>15</v>
       </c>
-      <c r="L27" t="n">
-        <v>15</v>
-      </c>
-      <c r="M27" t="n">
-        <v>15</v>
-      </c>
-      <c r="N27" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1708,13 +1459,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -1737,15 +1488,6 @@
       <c r="K28" t="n">
         <v>8</v>
       </c>
-      <c r="L28" t="n">
-        <v>8</v>
-      </c>
-      <c r="M28" t="n">
-        <v>8</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1783,15 +1525,6 @@
       <c r="K29" t="n">
         <v>6</v>
       </c>
-      <c r="L29" t="n">
-        <v>6</v>
-      </c>
-      <c r="M29" t="n">
-        <v>6</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1829,15 +1562,6 @@
       <c r="K30" t="n">
         <v>12</v>
       </c>
-      <c r="L30" t="n">
-        <v>12</v>
-      </c>
-      <c r="M30" t="n">
-        <v>12</v>
-      </c>
-      <c r="N30" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1875,15 +1599,6 @@
       <c r="K31" t="n">
         <v>8</v>
       </c>
-      <c r="L31" t="n">
-        <v>8</v>
-      </c>
-      <c r="M31" t="n">
-        <v>8</v>
-      </c>
-      <c r="N31" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1921,15 +1636,6 @@
       <c r="K32" t="n">
         <v>2</v>
       </c>
-      <c r="L32" t="n">
-        <v>2</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1967,15 +1673,6 @@
       <c r="K33" t="n">
         <v>7</v>
       </c>
-      <c r="L33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M33" t="n">
-        <v>7</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2013,15 +1710,6 @@
       <c r="K34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2059,15 +1747,6 @@
       <c r="K35" t="n">
         <v>3</v>
       </c>
-      <c r="L35" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2105,15 +1784,6 @@
       <c r="K36" t="n">
         <v>4</v>
       </c>
-      <c r="L36" t="n">
-        <v>4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2151,15 +1821,6 @@
       <c r="K37" t="n">
         <v>3</v>
       </c>
-      <c r="L37" t="n">
-        <v>3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2197,15 +1858,6 @@
       <c r="K38" t="n">
         <v>25</v>
       </c>
-      <c r="L38" t="n">
-        <v>25</v>
-      </c>
-      <c r="M38" t="n">
-        <v>25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2243,15 +1895,6 @@
       <c r="K39" t="n">
         <v>14</v>
       </c>
-      <c r="L39" t="n">
-        <v>14</v>
-      </c>
-      <c r="M39" t="n">
-        <v>14</v>
-      </c>
-      <c r="N39" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2289,15 +1932,6 @@
       <c r="K40" t="n">
         <v>10</v>
       </c>
-      <c r="L40" t="n">
-        <v>10</v>
-      </c>
-      <c r="M40" t="n">
-        <v>10</v>
-      </c>
-      <c r="N40" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2335,15 +1969,6 @@
       <c r="K41" t="n">
         <v>2</v>
       </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2381,15 +2006,6 @@
       <c r="K42" t="n">
         <v>2</v>
       </c>
-      <c r="L42" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2427,15 +2043,6 @@
       <c r="K43" t="n">
         <v>2</v>
       </c>
-      <c r="L43" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2473,15 +2080,6 @@
       <c r="K44" t="n">
         <v>1</v>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2519,15 +2117,6 @@
       <c r="K45" t="n">
         <v>26</v>
       </c>
-      <c r="L45" t="n">
-        <v>26</v>
-      </c>
-      <c r="M45" t="n">
-        <v>26</v>
-      </c>
-      <c r="N45" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2542,13 +2131,13 @@
         <v>88</v>
       </c>
       <c r="D46" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>87</v>
@@ -2565,15 +2154,6 @@
       <c r="K46" t="n">
         <v>87</v>
       </c>
-      <c r="L46" t="n">
-        <v>87</v>
-      </c>
-      <c r="M46" t="n">
-        <v>87</v>
-      </c>
-      <c r="N46" t="n">
-        <v>87</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2611,15 +2191,6 @@
       <c r="K47" t="n">
         <v>32</v>
       </c>
-      <c r="L47" t="n">
-        <v>32</v>
-      </c>
-      <c r="M47" t="n">
-        <v>32</v>
-      </c>
-      <c r="N47" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2657,15 +2228,6 @@
       <c r="K48" t="n">
         <v>11</v>
       </c>
-      <c r="L48" t="n">
-        <v>11</v>
-      </c>
-      <c r="M48" t="n">
-        <v>11</v>
-      </c>
-      <c r="N48" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2703,15 +2265,6 @@
       <c r="K49" t="n">
         <v>30</v>
       </c>
-      <c r="L49" t="n">
-        <v>30</v>
-      </c>
-      <c r="M49" t="n">
-        <v>30</v>
-      </c>
-      <c r="N49" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2749,15 +2302,6 @@
       <c r="K50" t="n">
         <v>9</v>
       </c>
-      <c r="L50" t="n">
-        <v>9</v>
-      </c>
-      <c r="M50" t="n">
-        <v>9</v>
-      </c>
-      <c r="N50" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2766,13 +2310,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
@@ -2795,15 +2339,6 @@
       <c r="K51" t="n">
         <v>9</v>
       </c>
-      <c r="L51" t="n">
-        <v>9</v>
-      </c>
-      <c r="M51" t="n">
-        <v>9</v>
-      </c>
-      <c r="N51" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2841,15 +2376,6 @@
       <c r="K52" t="n">
         <v>17</v>
       </c>
-      <c r="L52" t="n">
-        <v>17</v>
-      </c>
-      <c r="M52" t="n">
-        <v>17</v>
-      </c>
-      <c r="N52" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2887,15 +2413,6 @@
       <c r="K53" t="n">
         <v>10</v>
       </c>
-      <c r="L53" t="n">
-        <v>10</v>
-      </c>
-      <c r="M53" t="n">
-        <v>10</v>
-      </c>
-      <c r="N53" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2933,15 +2450,6 @@
       <c r="K54" t="n">
         <v>9</v>
       </c>
-      <c r="L54" t="n">
-        <v>9</v>
-      </c>
-      <c r="M54" t="n">
-        <v>9</v>
-      </c>
-      <c r="N54" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2979,15 +2487,6 @@
       <c r="K55" t="n">
         <v>11</v>
       </c>
-      <c r="L55" t="n">
-        <v>11</v>
-      </c>
-      <c r="M55" t="n">
-        <v>11</v>
-      </c>
-      <c r="N55" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3025,15 +2524,6 @@
       <c r="K56" t="n">
         <v>12</v>
       </c>
-      <c r="L56" t="n">
-        <v>12</v>
-      </c>
-      <c r="M56" t="n">
-        <v>12</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3071,15 +2561,6 @@
       <c r="K57" t="n">
         <v>7</v>
       </c>
-      <c r="L57" t="n">
-        <v>7</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7</v>
-      </c>
-      <c r="N57" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3117,15 +2598,6 @@
       <c r="K58" t="n">
         <v>31</v>
       </c>
-      <c r="L58" t="n">
-        <v>31</v>
-      </c>
-      <c r="M58" t="n">
-        <v>31</v>
-      </c>
-      <c r="N58" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3163,15 +2635,6 @@
       <c r="K59" t="n">
         <v>10</v>
       </c>
-      <c r="L59" t="n">
-        <v>10</v>
-      </c>
-      <c r="M59" t="n">
-        <v>10</v>
-      </c>
-      <c r="N59" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3209,15 +2672,6 @@
       <c r="K60" t="n">
         <v>1</v>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -3255,15 +2709,6 @@
       <c r="K61" t="n">
         <v>16</v>
       </c>
-      <c r="L61" t="n">
-        <v>16</v>
-      </c>
-      <c r="M61" t="n">
-        <v>16</v>
-      </c>
-      <c r="N61" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -3301,15 +2746,6 @@
       <c r="K62" t="n">
         <v>2</v>
       </c>
-      <c r="L62" t="n">
-        <v>2</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2</v>
-      </c>
-      <c r="N62" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -3347,15 +2783,6 @@
       <c r="K63" t="n">
         <v>17</v>
       </c>
-      <c r="L63" t="n">
-        <v>17</v>
-      </c>
-      <c r="M63" t="n">
-        <v>17</v>
-      </c>
-      <c r="N63" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3393,15 +2820,6 @@
       <c r="K64" t="n">
         <v>13</v>
       </c>
-      <c r="L64" t="n">
-        <v>13</v>
-      </c>
-      <c r="M64" t="n">
-        <v>13</v>
-      </c>
-      <c r="N64" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -3439,15 +2857,6 @@
       <c r="K65" t="n">
         <v>10</v>
       </c>
-      <c r="L65" t="n">
-        <v>10</v>
-      </c>
-      <c r="M65" t="n">
-        <v>10</v>
-      </c>
-      <c r="N65" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -3485,15 +2894,6 @@
       <c r="K66" t="n">
         <v>1</v>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -3531,15 +2931,6 @@
       <c r="K67" t="n">
         <v>3</v>
       </c>
-      <c r="L67" t="n">
-        <v>3</v>
-      </c>
-      <c r="M67" t="n">
-        <v>3</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3577,15 +2968,6 @@
       <c r="K68" t="n">
         <v>20</v>
       </c>
-      <c r="L68" t="n">
-        <v>20</v>
-      </c>
-      <c r="M68" t="n">
-        <v>20</v>
-      </c>
-      <c r="N68" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -3623,15 +3005,6 @@
       <c r="K69" t="n">
         <v>44</v>
       </c>
-      <c r="L69" t="n">
-        <v>44</v>
-      </c>
-      <c r="M69" t="n">
-        <v>44</v>
-      </c>
-      <c r="N69" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -3669,15 +3042,6 @@
       <c r="K70" t="n">
         <v>27</v>
       </c>
-      <c r="L70" t="n">
-        <v>27</v>
-      </c>
-      <c r="M70" t="n">
-        <v>27</v>
-      </c>
-      <c r="N70" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3715,15 +3079,6 @@
       <c r="K71" t="n">
         <v>1</v>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3761,15 +3116,6 @@
       <c r="K72" t="n">
         <v>5</v>
       </c>
-      <c r="L72" t="n">
-        <v>5</v>
-      </c>
-      <c r="M72" t="n">
-        <v>5</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3807,15 +3153,6 @@
       <c r="K73" t="n">
         <v>1</v>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -3853,15 +3190,6 @@
       <c r="K74" t="n">
         <v>4</v>
       </c>
-      <c r="L74" t="n">
-        <v>4</v>
-      </c>
-      <c r="M74" t="n">
-        <v>4</v>
-      </c>
-      <c r="N74" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3899,15 +3227,6 @@
       <c r="K75" t="n">
         <v>18</v>
       </c>
-      <c r="L75" t="n">
-        <v>18</v>
-      </c>
-      <c r="M75" t="n">
-        <v>18</v>
-      </c>
-      <c r="N75" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3945,15 +3264,6 @@
       <c r="K76" t="n">
         <v>4</v>
       </c>
-      <c r="L76" t="n">
-        <v>4</v>
-      </c>
-      <c r="M76" t="n">
-        <v>4</v>
-      </c>
-      <c r="N76" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3991,15 +3301,6 @@
       <c r="K77" t="n">
         <v>21</v>
       </c>
-      <c r="L77" t="n">
-        <v>21</v>
-      </c>
-      <c r="M77" t="n">
-        <v>21</v>
-      </c>
-      <c r="N77" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -4037,15 +3338,6 @@
       <c r="K78" t="n">
         <v>6</v>
       </c>
-      <c r="L78" t="n">
-        <v>6</v>
-      </c>
-      <c r="M78" t="n">
-        <v>6</v>
-      </c>
-      <c r="N78" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -4083,15 +3375,6 @@
       <c r="K79" t="n">
         <v>7</v>
       </c>
-      <c r="L79" t="n">
-        <v>7</v>
-      </c>
-      <c r="M79" t="n">
-        <v>7</v>
-      </c>
-      <c r="N79" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -4129,15 +3412,6 @@
       <c r="K80" t="n">
         <v>1</v>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -4175,15 +3449,6 @@
       <c r="K81" t="n">
         <v>3</v>
       </c>
-      <c r="L81" t="n">
-        <v>3</v>
-      </c>
-      <c r="M81" t="n">
-        <v>3</v>
-      </c>
-      <c r="N81" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -4221,15 +3486,6 @@
       <c r="K82" t="n">
         <v>4</v>
       </c>
-      <c r="L82" t="n">
-        <v>4</v>
-      </c>
-      <c r="M82" t="n">
-        <v>4</v>
-      </c>
-      <c r="N82" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -4267,15 +3523,6 @@
       <c r="K83" t="n">
         <v>4</v>
       </c>
-      <c r="L83" t="n">
-        <v>4</v>
-      </c>
-      <c r="M83" t="n">
-        <v>4</v>
-      </c>
-      <c r="N83" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -4313,15 +3560,6 @@
       <c r="K84" t="n">
         <v>38</v>
       </c>
-      <c r="L84" t="n">
-        <v>38</v>
-      </c>
-      <c r="M84" t="n">
-        <v>38</v>
-      </c>
-      <c r="N84" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -4359,15 +3597,6 @@
       <c r="K85" t="n">
         <v>7</v>
       </c>
-      <c r="L85" t="n">
-        <v>7</v>
-      </c>
-      <c r="M85" t="n">
-        <v>7</v>
-      </c>
-      <c r="N85" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -4405,15 +3634,6 @@
       <c r="K86" t="n">
         <v>3</v>
       </c>
-      <c r="L86" t="n">
-        <v>3</v>
-      </c>
-      <c r="M86" t="n">
-        <v>3</v>
-      </c>
-      <c r="N86" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -4451,15 +3671,6 @@
       <c r="K87" t="n">
         <v>7</v>
       </c>
-      <c r="L87" t="n">
-        <v>7</v>
-      </c>
-      <c r="M87" t="n">
-        <v>7</v>
-      </c>
-      <c r="N87" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -4497,15 +3708,6 @@
       <c r="K88" t="n">
         <v>6</v>
       </c>
-      <c r="L88" t="n">
-        <v>6</v>
-      </c>
-      <c r="M88" t="n">
-        <v>6</v>
-      </c>
-      <c r="N88" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -4543,15 +3745,6 @@
       <c r="K89" t="n">
         <v>11</v>
       </c>
-      <c r="L89" t="n">
-        <v>11</v>
-      </c>
-      <c r="M89" t="n">
-        <v>11</v>
-      </c>
-      <c r="N89" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -4589,15 +3782,6 @@
       <c r="K90" t="n">
         <v>13</v>
       </c>
-      <c r="L90" t="n">
-        <v>13</v>
-      </c>
-      <c r="M90" t="n">
-        <v>13</v>
-      </c>
-      <c r="N90" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -4635,15 +3819,6 @@
       <c r="K91" t="n">
         <v>11</v>
       </c>
-      <c r="L91" t="n">
-        <v>11</v>
-      </c>
-      <c r="M91" t="n">
-        <v>11</v>
-      </c>
-      <c r="N91" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -4681,15 +3856,6 @@
       <c r="K92" t="n">
         <v>39</v>
       </c>
-      <c r="L92" t="n">
-        <v>39</v>
-      </c>
-      <c r="M92" t="n">
-        <v>39</v>
-      </c>
-      <c r="N92" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -4727,15 +3893,6 @@
       <c r="K93" t="n">
         <v>110</v>
       </c>
-      <c r="L93" t="n">
-        <v>110</v>
-      </c>
-      <c r="M93" t="n">
-        <v>110</v>
-      </c>
-      <c r="N93" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -4773,15 +3930,6 @@
       <c r="K94" t="n">
         <v>57</v>
       </c>
-      <c r="L94" t="n">
-        <v>57</v>
-      </c>
-      <c r="M94" t="n">
-        <v>57</v>
-      </c>
-      <c r="N94" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -4819,15 +3967,6 @@
       <c r="K95" t="n">
         <v>21</v>
       </c>
-      <c r="L95" t="n">
-        <v>21</v>
-      </c>
-      <c r="M95" t="n">
-        <v>21</v>
-      </c>
-      <c r="N95" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -4865,15 +4004,6 @@
       <c r="K96" t="n">
         <v>40</v>
       </c>
-      <c r="L96" t="n">
-        <v>40</v>
-      </c>
-      <c r="M96" t="n">
-        <v>40</v>
-      </c>
-      <c r="N96" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -4911,15 +4041,6 @@
       <c r="K97" t="n">
         <v>35</v>
       </c>
-      <c r="L97" t="n">
-        <v>35</v>
-      </c>
-      <c r="M97" t="n">
-        <v>35</v>
-      </c>
-      <c r="N97" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -4957,15 +4078,6 @@
       <c r="K98" t="n">
         <v>32</v>
       </c>
-      <c r="L98" t="n">
-        <v>32</v>
-      </c>
-      <c r="M98" t="n">
-        <v>32</v>
-      </c>
-      <c r="N98" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -5003,15 +4115,6 @@
       <c r="K99" t="n">
         <v>39</v>
       </c>
-      <c r="L99" t="n">
-        <v>39</v>
-      </c>
-      <c r="M99" t="n">
-        <v>39</v>
-      </c>
-      <c r="N99" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -5049,15 +4152,6 @@
       <c r="K100" t="n">
         <v>38</v>
       </c>
-      <c r="L100" t="n">
-        <v>38</v>
-      </c>
-      <c r="M100" t="n">
-        <v>38</v>
-      </c>
-      <c r="N100" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -5066,10 +4160,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
         <v>8</v>
@@ -5095,15 +4189,6 @@
       <c r="K101" t="n">
         <v>8</v>
       </c>
-      <c r="L101" t="n">
-        <v>8</v>
-      </c>
-      <c r="M101" t="n">
-        <v>8</v>
-      </c>
-      <c r="N101" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -5141,15 +4226,6 @@
       <c r="K102" t="n">
         <v>16</v>
       </c>
-      <c r="L102" t="n">
-        <v>16</v>
-      </c>
-      <c r="M102" t="n">
-        <v>16</v>
-      </c>
-      <c r="N102" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -5185,15 +4261,6 @@
         <v>6</v>
       </c>
       <c r="K103" t="n">
-        <v>6</v>
-      </c>
-      <c r="L103" t="n">
-        <v>6</v>
-      </c>
-      <c r="M103" t="n">
-        <v>6</v>
-      </c>
-      <c r="N103" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
     </row>
@@ -497,34 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +534,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -645,34 +645,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -682,34 +682,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -719,34 +719,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -756,34 +756,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -793,34 +793,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -830,34 +830,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>20</v>
@@ -904,34 +904,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -941,34 +941,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1018,31 +1018,31 @@
         <v>52</v>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -1126,34 +1126,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1163,34 +1163,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1200,34 +1200,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1237,34 +1237,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1274,34 +1274,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1385,34 +1385,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1459,34 +1459,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1570,34 +1570,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1792,34 +1792,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1829,34 +1829,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1866,34 +1866,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -2088,34 +2088,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -2125,34 +2125,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C46" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D46" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E46" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F46" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G46" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H46" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I46" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J46" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K46" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -2162,34 +2162,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -2236,34 +2236,34 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K49" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -2273,34 +2273,34 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2458,34 +2458,34 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -2495,34 +2495,34 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -2532,34 +2532,34 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2569,34 +2569,34 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K58" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -2606,34 +2606,34 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2680,34 +2680,34 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K61" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -2754,34 +2754,34 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -2828,34 +2828,34 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -2939,34 +2939,34 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K68" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -3013,34 +3013,34 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K70" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -3531,34 +3531,34 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K84" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85">
@@ -3568,34 +3568,34 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -3642,34 +3642,34 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -3679,34 +3679,34 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -3716,34 +3716,34 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -3790,34 +3790,34 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -3827,34 +3827,34 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K92" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
@@ -3864,34 +3864,34 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K93" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94">
@@ -3901,34 +3901,34 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K94" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95">
@@ -3938,34 +3938,34 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -3975,34 +3975,34 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J96" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K96" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
@@ -4012,34 +4012,34 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K97" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98">
@@ -4049,34 +4049,34 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -4086,34 +4086,34 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100">
@@ -4123,34 +4123,34 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K100" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101">
@@ -4160,34 +4160,34 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -4234,34 +4234,34 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
     </row>
@@ -497,34 +497,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +571,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +608,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -645,34 +645,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -719,34 +719,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -756,34 +756,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -830,34 +830,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -867,34 +867,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -941,34 +941,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -978,34 +978,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K15" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -1015,34 +1015,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1200,34 +1200,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1237,34 +1237,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1274,34 +1274,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1311,34 +1311,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1385,34 +1385,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1459,34 +1459,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1496,34 +1496,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1570,34 +1570,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1644,34 +1644,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1681,34 +1681,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1829,34 +1829,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -2014,373 +2014,373 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C45" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="D45" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E45" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F45" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="H45" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="I45" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J45" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="K45" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="F46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="I46" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="J46" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="K46" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K48" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2417,1561 +2417,1561 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K58" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K68" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="K69" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K84" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="K91" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="E92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="F92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="G92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="H92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="J92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="K92" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="D93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="E93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="F93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="G93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="H93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="J93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="K93" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I95" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J95" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K95" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -4002,266 +4002,229 @@
         <v>38</v>
       </c>
       <c r="K96" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K97" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K98" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K100" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K101" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J102" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K102" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4</v>
-      </c>
-      <c r="H103" t="n">
-        <v>4</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" t="n">
-        <v>4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>2025-06-13</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,34 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -534,34 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -608,34 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -674,6 +691,9 @@
       <c r="K6" t="n">
         <v>47</v>
       </c>
+      <c r="L6" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -682,34 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -719,34 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="L8" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -785,6 +811,9 @@
       <c r="K9" t="n">
         <v>32</v>
       </c>
+      <c r="L9" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -793,34 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -830,34 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -896,6 +931,9 @@
       <c r="K12" t="n">
         <v>24</v>
       </c>
+      <c r="L12" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -904,34 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -941,34 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14" t="n">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="L14" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -1005,7 +1049,10 @@
         <v>113</v>
       </c>
       <c r="K15" t="n">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="L15" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -1015,34 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="n">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="L16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1081,6 +1131,9 @@
       <c r="K17" t="n">
         <v>5</v>
       </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1118,6 +1171,9 @@
       <c r="K18" t="n">
         <v>18</v>
       </c>
+      <c r="L18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1155,6 +1211,9 @@
       <c r="K19" t="n">
         <v>2</v>
       </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1192,6 +1251,9 @@
       <c r="K20" t="n">
         <v>9</v>
       </c>
+      <c r="L20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1200,34 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="L21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1237,34 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1274,34 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1311,34 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="L24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1348,34 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K25" t="n">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="L25" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1414,6 +1491,9 @@
       <c r="K26" t="n">
         <v>3</v>
       </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1451,6 +1531,9 @@
       <c r="K27" t="n">
         <v>15</v>
       </c>
+      <c r="L27" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1488,6 +1571,9 @@
       <c r="K28" t="n">
         <v>8</v>
       </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1496,34 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1562,6 +1651,9 @@
       <c r="K30" t="n">
         <v>12</v>
       </c>
+      <c r="L30" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1570,34 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1607,34 +1702,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1673,6 +1771,9 @@
       <c r="K33" t="n">
         <v>8</v>
       </c>
+      <c r="L33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1681,34 +1782,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1747,6 +1851,9 @@
       <c r="K35" t="n">
         <v>3</v>
       </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1784,6 +1891,9 @@
       <c r="K36" t="n">
         <v>4</v>
       </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1821,6 +1931,9 @@
       <c r="K37" t="n">
         <v>2</v>
       </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1829,34 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K38" t="n">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="L38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -1866,34 +1982,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K39" t="n">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="L39" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -1903,34 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1940,34 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2006,6 +2131,9 @@
       <c r="K42" t="n">
         <v>2</v>
       </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2043,6 +2171,9 @@
       <c r="K43" t="n">
         <v>3</v>
       </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2051,34 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" t="n">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="L44" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2117,6 +2251,9 @@
       <c r="K45" t="n">
         <v>89</v>
       </c>
+      <c r="L45" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2154,6 +2291,9 @@
       <c r="K46" t="n">
         <v>33</v>
       </c>
+      <c r="L46" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2191,6 +2331,9 @@
       <c r="K47" t="n">
         <v>10</v>
       </c>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2199,34 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="L48" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -2236,34 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="L49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -2302,6 +2451,9 @@
       <c r="K50" t="n">
         <v>8</v>
       </c>
+      <c r="L50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2339,6 +2491,9 @@
       <c r="K51" t="n">
         <v>17</v>
       </c>
+      <c r="L51" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2376,6 +2531,9 @@
       <c r="K52" t="n">
         <v>10</v>
       </c>
+      <c r="L52" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2413,6 +2571,9 @@
       <c r="K53" t="n">
         <v>10</v>
       </c>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2421,34 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="L54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2487,6 +2651,9 @@
       <c r="K55" t="n">
         <v>11</v>
       </c>
+      <c r="L55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2495,34 +2662,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2561,6 +2731,9 @@
       <c r="K57" t="n">
         <v>33</v>
       </c>
+      <c r="L57" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2569,34 +2742,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2606,34 +2782,37 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2643,34 +2822,37 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K60" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L60" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -2709,6 +2891,9 @@
       <c r="K61" t="n">
         <v>2</v>
       </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2746,6 +2931,9 @@
       <c r="K62" t="n">
         <v>18</v>
       </c>
+      <c r="L62" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2754,34 +2942,37 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K63" t="n">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="L63" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -2791,34 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2857,6 +3051,9 @@
       <c r="K65" t="n">
         <v>1</v>
       </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2894,6 +3091,9 @@
       <c r="K66" t="n">
         <v>3</v>
       </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2902,34 +3102,37 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K67" t="n">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L67" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -2968,6 +3171,9 @@
       <c r="K68" t="n">
         <v>45</v>
       </c>
+      <c r="L68" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2976,34 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K69" t="n">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="L69" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -3042,6 +3251,9 @@
       <c r="K70" t="n">
         <v>1</v>
       </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -3079,6 +3291,9 @@
       <c r="K71" t="n">
         <v>5</v>
       </c>
+      <c r="L71" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3116,6 +3331,9 @@
       <c r="K72" t="n">
         <v>1</v>
       </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -3124,34 +3342,37 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3190,6 +3411,9 @@
       <c r="K74" t="n">
         <v>18</v>
       </c>
+      <c r="L74" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3198,34 +3422,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3235,34 +3462,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K76" t="n">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="L76" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -3301,6 +3531,9 @@
       <c r="K77" t="n">
         <v>5</v>
       </c>
+      <c r="L77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3338,6 +3571,9 @@
       <c r="K78" t="n">
         <v>7</v>
       </c>
+      <c r="L78" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3375,6 +3611,9 @@
       <c r="K79" t="n">
         <v>1</v>
       </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3412,6 +3651,9 @@
       <c r="K80" t="n">
         <v>5</v>
       </c>
+      <c r="L80" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3449,6 +3691,9 @@
       <c r="K81" t="n">
         <v>2</v>
       </c>
+      <c r="L81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3457,34 +3702,37 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -3494,34 +3742,37 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J83" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L83" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="84">
@@ -3531,34 +3782,37 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K84" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -3568,34 +3822,37 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3634,6 +3891,9 @@
       <c r="K86" t="n">
         <v>6</v>
       </c>
+      <c r="L86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3642,34 +3902,37 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -3708,6 +3971,9 @@
       <c r="K88" t="n">
         <v>8</v>
       </c>
+      <c r="L88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3745,6 +4011,9 @@
       <c r="K89" t="n">
         <v>13</v>
       </c>
+      <c r="L89" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3782,6 +4051,9 @@
       <c r="K90" t="n">
         <v>14</v>
       </c>
+      <c r="L90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3790,34 +4062,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J91" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K91" t="n">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="L91" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -3827,34 +4102,37 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J92" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K92" t="n">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="L92" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="93">
@@ -3864,34 +4142,37 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J93" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K93" t="n">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="L93" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="94">
@@ -3901,34 +4182,37 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J94" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K94" t="n">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="L94" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -3967,6 +4251,9 @@
       <c r="K95" t="n">
         <v>40</v>
       </c>
+      <c r="L95" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3975,34 +4262,37 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J96" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K96" t="n">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="L96" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="97">
@@ -4041,6 +4331,9 @@
       <c r="K97" t="n">
         <v>30</v>
       </c>
+      <c r="L97" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -4078,6 +4371,9 @@
       <c r="K98" t="n">
         <v>45</v>
       </c>
+      <c r="L98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -4086,34 +4382,37 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K99" t="n">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="L99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -4123,34 +4422,37 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J100" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="L100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -4189,6 +4491,9 @@
       <c r="K101" t="n">
         <v>16</v>
       </c>
+      <c r="L101" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4197,34 +4502,37 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="L102" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
     </row>
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -902,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L14" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J15" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K15" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L15" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1062,28 +1062,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
         <v>49</v>
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1582,37 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1662,37 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1942,37 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -1982,123 +1982,123 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2138,447 +2138,447 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G45" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="H45" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I45" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="J45" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="K45" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="L45" t="n">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="J46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="K46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="L46" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="K48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L48" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L49" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L52" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2618,7 +2618,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2658,1247 +2658,1247 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="K57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L58" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L67" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="K68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L68" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="H69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L69" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L76" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="L84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3938,349 +3938,349 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L89" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="K91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L91" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="D92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="E92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="F92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="G92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="H92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="I92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="J92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="K92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="L92" t="n">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="G93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="H93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="I93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="J93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="K93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="L93" t="n">
-        <v>54</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="K94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="L94" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I95" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J95" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="K95" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L95" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I96" t="n">
         <v>39</v>
@@ -4298,241 +4298,281 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="L97" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="K98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L98" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L99" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L100" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L101" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>16</v>
+      </c>
+      <c r="C102" t="n">
+        <v>16</v>
+      </c>
+      <c r="D102" t="n">
+        <v>16</v>
+      </c>
+      <c r="E102" t="n">
+        <v>16</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16</v>
+      </c>
+      <c r="G102" t="n">
+        <v>16</v>
+      </c>
+      <c r="H102" t="n">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>16</v>
+      </c>
+      <c r="J102" t="n">
+        <v>16</v>
+      </c>
+      <c r="K102" t="n">
+        <v>16</v>
+      </c>
+      <c r="L102" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>7</v>
-      </c>
-      <c r="C102" t="n">
-        <v>7</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>7</v>
-      </c>
-      <c r="G102" t="n">
-        <v>7</v>
-      </c>
-      <c r="H102" t="n">
-        <v>7</v>
-      </c>
-      <c r="I102" t="n">
-        <v>7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>7</v>
-      </c>
-      <c r="K102" t="n">
-        <v>7</v>
-      </c>
-      <c r="L102" t="n">
-        <v>7</v>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+      <c r="I103" t="n">
+        <v>6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>6</v>
+      </c>
+      <c r="K103" t="n">
+        <v>6</v>
+      </c>
+      <c r="L103" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="L3" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L14" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -1102,37 +1102,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1222,37 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1982,37 +1982,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2062,37 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2102,37 +2102,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -2262,37 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E46" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L46" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -2302,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F47" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L47" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -2342,37 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -2462,37 +2462,37 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2502,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2542,28 +2542,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J53" t="n">
         <v>11</v>
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2662,37 +2662,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -2702,37 +2702,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2782,37 +2782,37 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2862,37 +2862,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -2902,37 +2902,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2982,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -3022,37 +3022,37 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L65" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -3142,37 +3142,37 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3542,37 +3542,37 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -3582,37 +3582,37 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -3782,37 +3782,37 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L84" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -3822,37 +3822,37 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -3982,37 +3982,37 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L89" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4062,37 +4062,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -4102,37 +4102,37 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L92" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
@@ -4142,37 +4142,37 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L93" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
@@ -4182,37 +4182,37 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L94" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95">
@@ -4222,37 +4222,37 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -4280,7 +4280,7 @@
         <v>40</v>
       </c>
       <c r="H96" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I96" t="n">
         <v>39</v>
@@ -4302,37 +4302,37 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L97" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98">
@@ -4342,37 +4342,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L98" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -4382,37 +4382,37 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L99" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -4502,37 +4502,37 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
@@ -4542,37 +4542,37 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -902,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -1000,19 +1000,19 @@
         <v>29</v>
       </c>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1083,16 +1083,16 @@
         <v>50</v>
       </c>
       <c r="I16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -1102,37 +1102,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1942,37 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L38" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -1982,1483 +1982,1483 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="H45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="J45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="K45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="L45" t="n">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D46" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="E46" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="H46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="K46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="L46" t="n">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L50" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L52" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L53" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L58" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L68" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L69" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L73" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3498,1081 +3498,1001 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L88" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L90" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="H91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="I91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="J91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="K91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="L91" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="K92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L92" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="D93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="H93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="K93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="L93" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C94" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D94" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E94" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H94" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I94" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J94" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K94" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L94" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="L95" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G96" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H96" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I96" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J96" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K96" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L96" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L97" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L98" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="K99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="L99" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L100" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L101" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>17</v>
-      </c>
-      <c r="C102" t="n">
-        <v>17</v>
-      </c>
-      <c r="D102" t="n">
-        <v>17</v>
-      </c>
-      <c r="E102" t="n">
-        <v>17</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17</v>
-      </c>
-      <c r="G102" t="n">
-        <v>17</v>
-      </c>
-      <c r="H102" t="n">
-        <v>17</v>
-      </c>
-      <c r="I102" t="n">
-        <v>17</v>
-      </c>
-      <c r="J102" t="n">
-        <v>17</v>
-      </c>
-      <c r="K102" t="n">
-        <v>17</v>
-      </c>
-      <c r="L102" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3</v>
-      </c>
-      <c r="D103" t="n">
-        <v>3</v>
-      </c>
-      <c r="E103" t="n">
-        <v>3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G103" t="n">
-        <v>3</v>
-      </c>
-      <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3</v>
-      </c>
-      <c r="K103" t="n">
-        <v>3</v>
-      </c>
-      <c r="L103" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -902,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
         <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C15" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D15" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E15" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="I15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L15" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1222,37 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L24" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1452,7 +1452,7 @@
         <v>32</v>
       </c>
       <c r="L25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1822,37 +1822,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1902,37 +1902,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1942,37 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -1982,37 +1982,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L45" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
@@ -2262,37 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -2342,37 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -2382,37 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2462,37 +2462,37 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -2502,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2542,37 +2542,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2622,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L55" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -2702,37 +2702,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L57" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -2982,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -3142,37 +3142,37 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L68" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69">
@@ -3182,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -3342,37 +3342,37 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -3382,37 +3382,37 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3422,37 +3422,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -3462,37 +3462,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3502,37 +3502,37 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -3702,37 +3702,37 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L82" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -3742,37 +3742,37 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L83" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -3892,7 +3892,7 @@
         <v>6</v>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4022,37 +4022,37 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L90" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -4062,37 +4062,37 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K91" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L91" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
@@ -4102,37 +4102,37 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L92" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
@@ -4142,37 +4142,37 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L93" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4194,25 +4194,25 @@
         <v>44</v>
       </c>
       <c r="F94" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G94" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H94" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I94" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J94" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L94" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
@@ -4222,37 +4222,37 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
@@ -4274,25 +4274,25 @@
         <v>27</v>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L96" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
@@ -4302,37 +4302,37 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L97" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
@@ -4342,37 +4342,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C98" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L98" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
     </row>
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>62</v>
+      </c>
+      <c r="G3" t="n">
         <v>63</v>
       </c>
-      <c r="C3" t="n">
+      <c r="H3" t="n">
         <v>63</v>
       </c>
-      <c r="D3" t="n">
+      <c r="I3" t="n">
         <v>63</v>
       </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
         <v>63</v>
       </c>
-      <c r="F3" t="n">
-        <v>65</v>
-      </c>
-      <c r="G3" t="n">
-        <v>65</v>
-      </c>
-      <c r="H3" t="n">
-        <v>65</v>
-      </c>
-      <c r="I3" t="n">
-        <v>65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>65</v>
-      </c>
       <c r="K3" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L14" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E15" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F15" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G15" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H15" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I15" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J15" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K15" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L15" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I16" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L16" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1222,37 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1274,25 +1274,25 @@
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1382,34 +1382,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" t="n">
         <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L24" t="n">
         <v>36</v>
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L25" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1662,37 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1822,37 +1822,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46">
@@ -2262,37 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -2302,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2342,37 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L48" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -2382,37 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2477,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" t="n">
         <v>16</v>
@@ -2502,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2542,37 +2542,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -2622,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2662,37 +2662,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -2702,37 +2702,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L57" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -2742,37 +2742,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -2822,37 +2822,37 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -2902,37 +2902,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -2982,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -3062,37 +3062,37 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3182,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K69" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L69" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -3302,37 +3302,37 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3342,37 +3342,37 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -3382,37 +3382,37 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3422,37 +3422,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L75" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3462,37 +3462,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3502,123 +3502,123 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L77" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,167 +3658,167 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="K82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="L82" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3858,87 +3858,87 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3978,520 +3978,480 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L89" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="E90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="G90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="H90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="J90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="K90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="L90" t="n">
-        <v>33</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="G91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="H91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="I91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="J91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="K91" t="n">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="L91" t="n">
-        <v>118</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="J92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="L92" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E93" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F93" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="I93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="L93" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C94" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E94" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L94" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H95" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I95" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L95" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D96" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E96" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F96" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G96" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H96" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I96" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J96" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="K96" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="L96" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D97" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E97" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F97" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G97" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H97" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I97" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J97" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K97" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L97" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="H98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="K98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="L98" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K99" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L99" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L100" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>7</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7</v>
-      </c>
-      <c r="G101" t="n">
-        <v>7</v>
-      </c>
-      <c r="H101" t="n">
-        <v>7</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7</v>
-      </c>
-      <c r="K101" t="n">
-        <v>7</v>
-      </c>
-      <c r="L101" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>64</v>
+      </c>
+      <c r="J3" t="n">
+        <v>64</v>
+      </c>
+      <c r="K3" t="n">
+        <v>64</v>
+      </c>
+      <c r="L3" t="n">
         <v>63</v>
-      </c>
-      <c r="H3" t="n">
-        <v>63</v>
-      </c>
-      <c r="I3" t="n">
-        <v>63</v>
-      </c>
-      <c r="J3" t="n">
-        <v>63</v>
-      </c>
-      <c r="K3" t="n">
-        <v>63</v>
-      </c>
-      <c r="L3" t="n">
-        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L6" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -902,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -963,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
         <v>10</v>
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L15" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
+        <v>43</v>
+      </c>
+      <c r="H16" t="n">
+        <v>43</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43</v>
+      </c>
+      <c r="J16" t="n">
+        <v>43</v>
+      </c>
+      <c r="K16" t="n">
+        <v>43</v>
+      </c>
+      <c r="L16" t="n">
         <v>42</v>
-      </c>
-      <c r="H16" t="n">
-        <v>42</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>42</v>
-      </c>
-      <c r="K16" t="n">
-        <v>42</v>
-      </c>
-      <c r="L16" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1222,37 +1222,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I24" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K24" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L25" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1662,37 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -1902,37 +1902,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1942,37 +1942,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -1982,37 +1982,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -2022,37 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2182,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L44" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L45" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
@@ -2262,37 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -2302,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2342,37 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L48" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -2382,37 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2462,37 +2462,37 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -2502,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2542,37 +2542,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -2622,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2662,37 +2662,37 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2742,37 +2742,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2862,37 +2862,37 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2902,37 +2902,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -2942,37 +2942,37 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -2982,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -3102,37 +3102,37 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L67" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -3142,37 +3142,37 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L68" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
@@ -3182,323 +3182,323 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3538,921 +3538,1001 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="F83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L87" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L88" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="C90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="F90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="I90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="J90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="K90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="L90" t="n">
-        <v>119</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L91" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="C92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="H92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="J92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="K92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="L92" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E93" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F93" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L93" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L94" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C95" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D95" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E95" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F95" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G95" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H95" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I95" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J95" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K95" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L95" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="J96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="K96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L96" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E97" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F97" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G97" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I97" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J97" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L97" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="J98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="K98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="L98" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E99" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F99" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G99" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H99" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I99" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J99" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K99" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="L99" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>8</v>
+      </c>
+      <c r="G100" t="n">
+        <v>8</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>8</v>
+      </c>
+      <c r="K100" t="n">
+        <v>8</v>
+      </c>
+      <c r="L100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>15</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15</v>
+      </c>
+      <c r="D101" t="n">
+        <v>15</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15</v>
+      </c>
+      <c r="G101" t="n">
+        <v>15</v>
+      </c>
+      <c r="H101" t="n">
+        <v>15</v>
+      </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15</v>
+      </c>
+      <c r="K101" t="n">
+        <v>16</v>
+      </c>
+      <c r="L101" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>7</v>
-      </c>
-      <c r="C100" t="n">
-        <v>7</v>
-      </c>
-      <c r="D100" t="n">
-        <v>7</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7</v>
-      </c>
-      <c r="F100" t="n">
-        <v>7</v>
-      </c>
-      <c r="G100" t="n">
-        <v>7</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>7</v>
-      </c>
-      <c r="K100" t="n">
-        <v>7</v>
-      </c>
-      <c r="L100" t="n">
-        <v>7</v>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -551,7 +551,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
         <v>64</v>
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H15" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I15" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J15" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K15" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L15" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1071,7 +1071,7 @@
         <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
         <v>43</v>
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15</v>
+      </c>
+      <c r="L21" t="n">
         <v>14</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L25" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1582,37 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1662,37 +1662,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
@@ -2022,37 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2062,37 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2182,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L44" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L45" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
@@ -2302,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2342,37 +2342,37 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -2474,25 +2474,25 @@
         <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -2622,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2702,37 +2702,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L57" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -2902,37 +2902,37 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -2942,37 +2942,37 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -2982,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -3062,37 +3062,37 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3102,37 +3102,37 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -3142,37 +3142,37 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -3182,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -3342,37 +3342,37 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3422,37 +3422,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3462,37 +3462,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L76" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3502,37 +3502,37 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3542,83 +3542,83 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,167 +3698,167 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3898,640 +3898,600 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L89" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="K90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L90" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="E91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="G91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="H91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="I91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="J91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="K91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="L91" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="E92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="F92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="G92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="I92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="K92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="L92" t="n">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="G93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L93" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J94" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K94" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="L94" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K95" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L95" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C96" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K96" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L96" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C97" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D97" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E97" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F97" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G97" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H97" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I97" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J97" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K97" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="L97" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C98" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K98" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L98" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G99" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H99" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I99" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J99" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K99" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L99" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J100" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K100" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L100" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K101" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5</v>
-      </c>
-      <c r="G102" t="n">
-        <v>5</v>
-      </c>
-      <c r="H102" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E3" t="n">
         <v>63</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>63</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>63</v>
       </c>
-      <c r="E3" t="n">
-        <v>64</v>
-      </c>
-      <c r="F3" t="n">
-        <v>64</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
-      </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L25" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -2022,37 +2022,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2062,37 +2062,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2182,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L44" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L45" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -2262,37 +2262,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
@@ -2302,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2382,37 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2502,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L52" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2542,37 +2542,37 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2622,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L55" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -3142,37 +3142,37 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L68" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
@@ -3182,37 +3182,37 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -3502,37 +3502,37 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3542,83 +3542,83 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3658,7 +3658,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3698,167 +3698,167 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="L83" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3898,377 +3898,377 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="J90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L90" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="C91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="G91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="H91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="J91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="K91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="L91" t="n">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="E92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="G92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="H92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="I92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="J92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="K92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="L92" t="n">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="I93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="L93" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C94" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D94" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J94" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K94" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H95" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I95" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K95" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L95" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E96" t="n">
         <v>33</v>
@@ -4292,207 +4292,247 @@
         <v>33</v>
       </c>
       <c r="L96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K97" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L97" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K98" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K99" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="L99" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I100" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J100" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K100" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>18</v>
+      </c>
+      <c r="C101" t="n">
+        <v>18</v>
+      </c>
+      <c r="D101" t="n">
+        <v>18</v>
+      </c>
+      <c r="E101" t="n">
+        <v>18</v>
+      </c>
+      <c r="F101" t="n">
+        <v>18</v>
+      </c>
+      <c r="G101" t="n">
+        <v>18</v>
+      </c>
+      <c r="H101" t="n">
+        <v>18</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>19</v>
+      </c>
+      <c r="K101" t="n">
+        <v>19</v>
+      </c>
+      <c r="L101" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>5</v>
-      </c>
-      <c r="D101" t="n">
-        <v>5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>5</v>
-      </c>
-      <c r="G101" t="n">
-        <v>5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>5</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>5</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5</v>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-30</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
         <v>63</v>
@@ -572,7 +572,7 @@
         <v>63</v>
       </c>
       <c r="L3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
@@ -932,7 +932,7 @@
         <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -957,22 +957,22 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -985,34 +985,34 @@
         <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K15" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L15" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1102,37 +1102,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
         <v>15</v>
@@ -1292,7 +1292,7 @@
         <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1582,37 +1582,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1622,37 +1622,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1662,517 +1662,517 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2182,37 +2182,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L44" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -2222,37 +2222,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L45" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46">
@@ -2302,37 +2302,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2382,37 +2382,37 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2502,37 +2502,37 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2582,37 +2582,37 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -2622,37 +2622,37 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2702,37 +2702,37 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L57" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -2742,37 +2742,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L58" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -2942,37 +2942,37 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -2982,37 +2982,37 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -3022,37 +3022,37 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3062,197 +3062,197 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L68" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="L69" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -3302,37 +3302,37 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3382,37 +3382,37 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -3422,37 +3422,37 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3462,37 +3462,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L76" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -3542,37 +3542,37 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -3702,37 +3702,37 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -3822,37 +3822,37 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -3862,37 +3862,37 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -3902,37 +3902,37 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -4102,37 +4102,37 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L92" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
@@ -4142,37 +4142,37 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L93" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94">
@@ -4182,37 +4182,37 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -4222,37 +4222,37 @@
         </is>
       </c>
       <c r="B95" t="n">
+        <v>42</v>
+      </c>
+      <c r="C95" t="n">
+        <v>42</v>
+      </c>
+      <c r="D95" t="n">
+        <v>42</v>
+      </c>
+      <c r="E95" t="n">
+        <v>42</v>
+      </c>
+      <c r="F95" t="n">
+        <v>42</v>
+      </c>
+      <c r="G95" t="n">
         <v>43</v>
       </c>
-      <c r="C95" t="n">
+      <c r="H95" t="n">
         <v>43</v>
       </c>
-      <c r="D95" t="n">
+      <c r="I95" t="n">
         <v>43</v>
       </c>
-      <c r="E95" t="n">
-        <v>44</v>
-      </c>
-      <c r="F95" t="n">
-        <v>44</v>
-      </c>
-      <c r="G95" t="n">
-        <v>44</v>
-      </c>
-      <c r="H95" t="n">
-        <v>44</v>
-      </c>
-      <c r="I95" t="n">
-        <v>45</v>
-      </c>
       <c r="J95" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K95" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L95" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
@@ -4262,37 +4262,37 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L96" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97">
@@ -4311,25 +4311,25 @@
         <v>31</v>
       </c>
       <c r="E97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K97" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L97" t="n">
         <v>31</v>
@@ -4342,37 +4342,37 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L98" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99">
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C99" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E99" t="n">
         <v>32</v>
@@ -4412,7 +4412,7 @@
         <v>32</v>
       </c>
       <c r="L99" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -4422,37 +4422,37 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L100" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C101" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D101" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F101" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G101" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H101" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I101" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J101" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K101" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L101" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102">
@@ -4502,37 +4502,37 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -782,37 +782,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -902,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
         <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K15" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L15" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1142,37 +1142,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1182,37 +1182,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1702,37 +1702,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1782,37 +1782,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1822,37 +1822,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1902,37 +1902,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -1942,563 +1942,563 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="G45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="H45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="J45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="K45" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="L45" t="n">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="H46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="J46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="L46" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2538,1167 +2538,1167 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L55" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L58" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="G69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="K69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="L69" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L70" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3738,800 +3738,840 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="K83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="K84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="E92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="F92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="G92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="H92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="I92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="J92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="K92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="L92" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="D93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="E93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="G93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="H93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="J93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="K93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="L93" t="n">
-        <v>53</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="E94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="K94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="L94" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C95" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D95" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G95" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H95" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I95" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="J95" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="K95" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="L95" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C96" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D96" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E96" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L96" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L97" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L98" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="L99" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L100" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D101" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L101" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>16</v>
+      </c>
+      <c r="C102" t="n">
+        <v>16</v>
+      </c>
+      <c r="D102" t="n">
+        <v>16</v>
+      </c>
+      <c r="E102" t="n">
+        <v>16</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17</v>
+      </c>
+      <c r="H102" t="n">
+        <v>17</v>
+      </c>
+      <c r="I102" t="n">
+        <v>17</v>
+      </c>
+      <c r="J102" t="n">
+        <v>17</v>
+      </c>
+      <c r="K102" t="n">
+        <v>17</v>
+      </c>
+      <c r="L102" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
-        <v>4</v>
-      </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" t="n">
-        <v>4</v>
-      </c>
-      <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4</v>
-      </c>
-      <c r="G102" t="n">
-        <v>4</v>
-      </c>
-      <c r="H102" t="n">
-        <v>4</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>4</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>4</v>
+      </c>
+      <c r="L103" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +569,10 @@
         <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -582,37 +582,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -662,34 +662,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" t="n">
         <v>49</v>
@@ -742,37 +742,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -822,37 +822,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -902,37 +902,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1022,34 +1022,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L15" t="n">
         <v>111</v>
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1369,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" t="n">
         <v>22</v>
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1702,37 +1702,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1902,37 +1902,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -1942,483 +1942,483 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="H45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="J45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="K45" t="n">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="L45" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="F46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="G46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="J46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="K46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="L46" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2458,207 +2458,207 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2698,1880 +2698,1840 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="K69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="L69" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L71" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K78" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="L83" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L84" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J90" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L90" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="J91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L91" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="E92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="F92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="G92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="H92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="I92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="J92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="K92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="L92" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="E93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="G93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="H93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="I93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="J93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="K93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="L93" t="n">
-        <v>114</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="K94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L94" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="K95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L95" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C96" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E96" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L96" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L97" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="L98" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L99" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="J100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="L100" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L101" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K102" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L102" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4</v>
-      </c>
-      <c r="H103" t="n">
-        <v>4</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" t="n">
-        <v>4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>4</v>
-      </c>
-      <c r="L103" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
     </row>
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -542,31 +542,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>60</v>
@@ -622,37 +622,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -662,37 +662,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L6" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -702,37 +702,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -862,37 +862,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>25</v>
@@ -923,7 +923,7 @@
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
         <v>26</v>
@@ -942,37 +942,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -982,37 +982,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -1022,37 +1022,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1166,13 +1166,13 @@
         <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1262,37 +1262,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
         <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1382,37 +1382,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1422,37 +1422,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L25" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1502,37 +1502,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1542,37 +1542,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1698,447 +1698,447 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右上</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2178,727 +2178,727 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L46" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="L50" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L55" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2938,167 +2938,167 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3138,367 +3138,367 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L70" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3538,167 +3538,167 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K78" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L78" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3738,127 +3738,127 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3898,127 +3898,127 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L89" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4049,489 +4049,569 @@
         <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="K91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="L91" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="J92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="K92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="L92" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="L93" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="G94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="H94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="J94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="K94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="L94" t="n">
-        <v>17</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C95" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D95" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="K95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L95" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="G96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L96" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L97" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C98" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L98" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L99" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I100" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="J100" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="K100" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="L100" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="L101" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9</v>
+      </c>
+      <c r="G102" t="n">
+        <v>9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+      <c r="I102" t="n">
+        <v>9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9</v>
+      </c>
+      <c r="L102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>17</v>
+      </c>
+      <c r="C103" t="n">
+        <v>17</v>
+      </c>
+      <c r="D103" t="n">
+        <v>18</v>
+      </c>
+      <c r="E103" t="n">
+        <v>18</v>
+      </c>
+      <c r="F103" t="n">
+        <v>18</v>
+      </c>
+      <c r="G103" t="n">
+        <v>18</v>
+      </c>
+      <c r="H103" t="n">
+        <v>18</v>
+      </c>
+      <c r="I103" t="n">
+        <v>18</v>
+      </c>
+      <c r="J103" t="n">
+        <v>18</v>
+      </c>
+      <c r="K103" t="n">
+        <v>18</v>
+      </c>
+      <c r="L103" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B104" t="n">
         <v>4</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C104" t="n">
         <v>4</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D104" t="n">
         <v>4</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E104" t="n">
         <v>4</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F104" t="n">
         <v>4</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G104" t="n">
         <v>4</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H104" t="n">
         <v>4</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I104" t="n">
         <v>4</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J104" t="n">
         <v>4</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K104" t="n">
         <v>4</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L104" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
         </is>
       </c>
     </row>
@@ -501,38 +506,39 @@
           <t>光電業右上</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>23</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -541,38 +547,39 @@
           <t>光電業右下</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>60</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="M3" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -581,38 +588,39 @@
           <t>光電業平</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>31</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -621,9 +629,7 @@
           <t>其他右上</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>22</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>22</v>
       </c>
@@ -654,6 +660,9 @@
       <c r="L5" t="n">
         <v>22</v>
       </c>
+      <c r="M5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -662,37 +671,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L6" t="n">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -701,38 +713,39 @@
           <t>其他平</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>25</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -741,38 +754,39 @@
           <t>其他電子業右上</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>31</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -781,38 +795,39 @@
           <t>其他電子業右下</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>35</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="M9" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -821,38 +836,39 @@
           <t>其他電子業平</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -861,38 +877,39 @@
           <t>化學工業右上</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -901,38 +918,39 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>25</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="n">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -941,9 +959,7 @@
           <t>化學工業平</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>11</v>
       </c>
@@ -974,6 +990,9 @@
       <c r="L13" t="n">
         <v>11</v>
       </c>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -981,38 +1000,39 @@
           <t>半導體業右上</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>38</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="M14" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1021,38 +1041,39 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>110</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K15" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L15" t="n">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1061,38 +1082,39 @@
           <t>半導體業平</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>43</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16" t="n">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="M16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1101,38 +1123,39 @@
           <t>塑膠工業右上</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1141,9 +1164,7 @@
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>18</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>18</v>
       </c>
@@ -1166,13 +1187,16 @@
         <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1181,38 +1205,39 @@
           <t>塑膠工業平</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1221,38 +1246,39 @@
           <t>居家生活右上</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1262,37 +1288,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1301,38 +1330,39 @@
           <t>居家生活平</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>10</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1341,38 +1371,39 @@
           <t>建材營造右上</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>20</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
         <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1381,38 +1412,39 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>26</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" t="n">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="M24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1421,38 +1453,39 @@
           <t>建材營造平</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>39</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" t="n">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1461,38 +1494,39 @@
           <t>數位雲端右上</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>6</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1501,38 +1535,39 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>14</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="M27" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1541,9 +1576,7 @@
           <t>數位雲端平</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>6</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>6</v>
       </c>
@@ -1572,6 +1605,9 @@
         <v>6</v>
       </c>
       <c r="L28" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1581,38 +1617,39 @@
           <t>文化創意業右上</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>7</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1621,38 +1658,39 @@
           <t>文化創意業右下</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>13</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="M30" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1661,9 +1699,7 @@
           <t>文化創意業平</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
         <v>6</v>
       </c>
@@ -1692,818 +1728,841 @@
         <v>6</v>
       </c>
       <c r="L31" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右上</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
+          <t>橡膠工業右下</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>8</v>
-      </c>
+          <t>橡膠工業平</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
+          <t>水泥工業右下</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
+          <t>水泥工業平</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
+          <t>汽車工業右上</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="M37" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
+          <t>汽車工業平</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="M38" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>26</v>
-      </c>
+          <t>油電燃氣業右下</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="M39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14</v>
-      </c>
+          <t>油電燃氣業平</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>6</v>
-      </c>
+          <t>玻璃陶瓷右下</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>6</v>
-      </c>
+          <t>玻璃陶瓷平</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
+          <t>生技醫療業右上</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="M43" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
+          <t>生技醫療業平</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="M45" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>24</v>
-      </c>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="M46" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>94</v>
-      </c>
+          <t>紡織纖維右下</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E47" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="H47" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="J47" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="K47" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="L47" t="n">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>28</v>
-      </c>
+          <t>紡織纖維平</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>11</v>
-      </c>
+          <t>綠能環保右上</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="M49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>31</v>
-      </c>
+          <t>綠能環保右下</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K50" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L50" t="n">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="M50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>9</v>
-      </c>
+          <t>綠能環保平</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="M51" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>6</v>
-      </c>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
         <v>6</v>
       </c>
@@ -2532,98 +2591,101 @@
         <v>6</v>
       </c>
       <c r="L52" t="n">
+        <v>6</v>
+      </c>
+      <c r="M52" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>15</v>
-      </c>
+          <t>航運業右下</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L53" t="n">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="M53" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>15</v>
-      </c>
+          <t>航運業平</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>6</v>
-      </c>
+          <t>觀光事業右上</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
         <v>6</v>
       </c>
@@ -2652,1966 +2714,1905 @@
         <v>6</v>
       </c>
       <c r="L55" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>16</v>
-      </c>
+          <t>觀光事業右下</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L56" t="n">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="M56" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>10</v>
-      </c>
+          <t>觀光事業平</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L57" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
+          <t>貿易百貨右上</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>31</v>
-      </c>
+          <t>貿易百貨右下</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>9</v>
-      </c>
+          <t>貿易百貨平</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
+          <t>資訊服務業右上</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="M61" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K62" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="M62" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2</v>
-      </c>
+          <t>資訊服務業平</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="M63" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>18</v>
-      </c>
+          <t>農業科技業右上</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>11</v>
-      </c>
+          <t>農業科技業右下</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>11</v>
-      </c>
+          <t>農業科技業平</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
+          <t>通信網路業右上</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="M67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="M68" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
+          <t>通信網路業平</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="M69" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>19</v>
-      </c>
+          <t>造紙工業右下</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>42</v>
-      </c>
+          <t>造紙工業平</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>29</v>
-      </c>
+          <t>運動休閒右上</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5</v>
-      </c>
+          <t>運動休閒右下</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L73" t="n">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="M73" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2</v>
-      </c>
+          <t>運動休閒平</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
-      </c>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K75" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="M75" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>18</v>
-      </c>
+          <t>金融保險右下</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>5</v>
-      </c>
+          <t>金融保險平</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="M77" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>17</v>
-      </c>
+          <t>金融業右上</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>5</v>
-      </c>
+          <t>金融業右下</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>10</v>
-      </c>
+          <t>金融業平</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="M82" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>3</v>
-      </c>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K83" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="M83" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>4</v>
-      </c>
+          <t>電器電纜右上</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>37</v>
-      </c>
+          <t>電器電纜右下</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D85" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G85" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K85" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>8</v>
-      </c>
+          <t>電器電纜平</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>3</v>
-      </c>
+          <t>電子通路業右上</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="M87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>8</v>
-      </c>
+          <t>電子通路業右下</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K88" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L88" t="n">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="M88" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>5</v>
-      </c>
+          <t>電子通路業平</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="M89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>10</v>
-      </c>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="K90" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="M90" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="F91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="I91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="J91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="K91" t="n">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="L91" t="n">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="M91" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>12</v>
-      </c>
+          <t>電子零組件業平</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F92" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G92" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H92" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I92" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J92" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="K92" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="L92" t="n">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="M92" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>42</v>
-      </c>
+          <t>電機機械右上</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="K93" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="L93" t="n">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="M93" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>108</v>
-      </c>
+          <t>電機機械右下</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="H94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="J94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="K94" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="L94" t="n">
-        <v>108</v>
+        <v>44</v>
+      </c>
+      <c r="M94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>56</v>
-      </c>
+          <t>電機機械平</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="K95" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L95" t="n">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="M95" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>18</v>
-      </c>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K96" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L96" t="n">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="M96" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>40</v>
-      </c>
+          <t>電腦及週邊設備業右下</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K97" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L97" t="n">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="M97" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>37</v>
-      </c>
+          <t>電腦及週邊設備業平</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K98" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L98" t="n">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="M98" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>31</v>
-      </c>
+          <t>食品工業右上</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K99" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="L99" t="n">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="M99" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="G100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I100" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J100" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K100" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="L100" t="n">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="M100" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>28</v>
-      </c>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="L101" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>食品工業右上</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>9</v>
-      </c>
-      <c r="C102" t="n">
-        <v>9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>9</v>
-      </c>
-      <c r="E102" t="n">
-        <v>9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>9</v>
-      </c>
-      <c r="G102" t="n">
-        <v>9</v>
-      </c>
-      <c r="H102" t="n">
-        <v>9</v>
-      </c>
-      <c r="I102" t="n">
-        <v>9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>9</v>
-      </c>
-      <c r="K102" t="n">
-        <v>9</v>
-      </c>
-      <c r="L102" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>17</v>
-      </c>
-      <c r="C103" t="n">
-        <v>17</v>
-      </c>
-      <c r="D103" t="n">
-        <v>18</v>
-      </c>
-      <c r="E103" t="n">
-        <v>18</v>
-      </c>
-      <c r="F103" t="n">
-        <v>18</v>
-      </c>
-      <c r="G103" t="n">
-        <v>18</v>
-      </c>
-      <c r="H103" t="n">
-        <v>18</v>
-      </c>
-      <c r="I103" t="n">
-        <v>18</v>
-      </c>
-      <c r="J103" t="n">
-        <v>18</v>
-      </c>
-      <c r="K103" t="n">
-        <v>18</v>
-      </c>
-      <c r="L103" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>4</v>
-      </c>
-      <c r="C104" t="n">
-        <v>4</v>
-      </c>
-      <c r="D104" t="n">
-        <v>4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>4</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4</v>
-      </c>
-      <c r="G104" t="n">
-        <v>4</v>
-      </c>
-      <c r="H104" t="n">
-        <v>4</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>4</v>
-      </c>
-      <c r="L104" t="n">
+        <v>4</v>
+      </c>
+      <c r="M101" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
     </row>
@@ -508,37 +508,37 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -670,41 +670,39 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -733,19 +731,19 @@
         <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -756,37 +754,37 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -797,37 +795,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -838,37 +836,37 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -879,37 +877,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -932,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
         <v>27</v>
@@ -961,37 +959,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1002,37 +1000,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M14" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1058,22 +1056,22 @@
         <v>117</v>
       </c>
       <c r="H15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -1084,37 +1082,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1291,37 +1289,37 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1332,37 +1330,37 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1373,37 +1371,37 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1412,7 +1410,9 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" t="n">
         <v>28</v>
       </c>
@@ -1455,37 +1455,37 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -1619,37 +1619,37 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1701,37 +1701,37 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1760,19 +1760,19 @@
         <v>8</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1801,19 +1801,19 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1824,37 +1824,37 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1865,37 +1865,37 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1906,37 +1906,37 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1947,37 +1947,37 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1988,37 +1988,37 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2111,37 +2111,37 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2152,37 +2152,37 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2193,37 +2193,37 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2232,41 +2232,39 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -2277,37 +2275,37 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M45" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -2336,19 +2334,19 @@
         <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2357,39 +2355,41 @@
           <t>紡織纖維右下</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
       <c r="C47" t="n">
+        <v>33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33</v>
+      </c>
+      <c r="E47" t="n">
+        <v>33</v>
+      </c>
+      <c r="F47" t="n">
+        <v>33</v>
+      </c>
+      <c r="G47" t="n">
+        <v>33</v>
+      </c>
+      <c r="H47" t="n">
+        <v>33</v>
+      </c>
+      <c r="I47" t="n">
+        <v>33</v>
+      </c>
+      <c r="J47" t="n">
         <v>32</v>
       </c>
-      <c r="D47" t="n">
+      <c r="K47" t="n">
         <v>32</v>
       </c>
-      <c r="E47" t="n">
+      <c r="L47" t="n">
         <v>32</v>
       </c>
-      <c r="F47" t="n">
+      <c r="M47" t="n">
         <v>32</v>
-      </c>
-      <c r="G47" t="n">
-        <v>32</v>
-      </c>
-      <c r="H47" t="n">
-        <v>32</v>
-      </c>
-      <c r="I47" t="n">
-        <v>31</v>
-      </c>
-      <c r="J47" t="n">
-        <v>31</v>
-      </c>
-      <c r="K47" t="n">
-        <v>30</v>
-      </c>
-      <c r="L47" t="n">
-        <v>30</v>
-      </c>
-      <c r="M47" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -2400,37 +2400,37 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2482,37 +2482,37 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M50" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -2523,37 +2523,37 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -2687,37 +2687,37 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2728,37 +2728,37 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -2769,37 +2769,37 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2910,19 +2910,19 @@
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2933,37 +2933,37 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -3017,37 +3017,37 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -3181,37 +3181,37 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M67" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -3221,40 +3221,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M68" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -3511,37 +3511,37 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H75" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J75" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L75" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M75" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3550,39 +3550,41 @@
           <t>金融保險右下</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3593,37 +3595,37 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3757,37 +3759,37 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -3796,41 +3798,39 @@
           <t>鋼鐵工業右下</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -3841,37 +3841,37 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -3897,22 +3897,22 @@
         <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -3938,22 +3938,22 @@
         <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M85" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -3979,22 +3979,22 @@
         <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -4005,37 +4005,37 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -4061,22 +4061,22 @@
         <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4087,37 +4087,37 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4128,37 +4128,37 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M90" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -4167,41 +4167,39 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M91" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92">
@@ -4212,37 +4210,37 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I92" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J92" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K92" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L92" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M92" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93">
@@ -4253,37 +4251,37 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4294,37 +4292,37 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M94" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -4335,37 +4333,37 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I95" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J95" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K95" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L95" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M95" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
@@ -4376,37 +4374,37 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M96" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -4417,37 +4415,37 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D97" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E97" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F97" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G97" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H97" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I97" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J97" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K97" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L97" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M97" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98">
@@ -4473,22 +4471,22 @@
         <v>25</v>
       </c>
       <c r="H98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M98" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -4538,41 +4536,39 @@
           <t>食品工業右下</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
     </row>
@@ -508,37 +508,37 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -672,37 +672,37 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +713,37 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -754,16 +754,16 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
         <v>30</v>
@@ -795,37 +795,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +918,37 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +959,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1000,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M14" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1041,19 +1041,19 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" t="n">
         <v>116</v>
@@ -1082,37 +1082,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1176,25 +1176,25 @@
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1246,37 +1246,37 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1285,9 +1285,7 @@
           <t>居家生活右下</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>15</v>
       </c>
@@ -1304,22 +1302,22 @@
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1383,25 +1381,25 @@
         <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -1410,41 +1408,39 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1467,25 +1463,25 @@
         <v>40</v>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1877,25 +1873,25 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1947,37 +1943,37 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -1988,37 +1984,37 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2082,25 +2078,25 @@
         <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2111,37 +2107,37 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2152,37 +2148,37 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2193,37 +2189,37 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -2246,25 +2242,25 @@
         <v>101</v>
       </c>
       <c r="G44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M44" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -2275,37 +2271,37 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M45" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -2316,37 +2312,37 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2355,41 +2351,39 @@
           <t>紡織纖維右下</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I47" t="n">
         <v>33</v>
       </c>
       <c r="J47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M47" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -2400,37 +2394,37 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2564,37 +2558,37 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2603,39 +2597,41 @@
           <t>航運業右下</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
       <c r="C53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M53" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -2646,37 +2642,37 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2687,37 +2683,37 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2728,37 +2724,37 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -2851,37 +2847,37 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2892,37 +2888,37 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2933,37 +2929,37 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F61" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -3017,37 +3013,37 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M63" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -3181,37 +3177,37 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -3220,41 +3216,39 @@
           <t>通信網路業右下</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M68" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
@@ -3265,37 +3259,37 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -3511,37 +3505,37 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M75" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
@@ -3550,9 +3544,7 @@
           <t>金融保險右下</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>7</v>
       </c>
@@ -3610,22 +3602,22 @@
         <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3800,37 +3792,37 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M82" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
@@ -3841,37 +3833,37 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -3897,22 +3889,22 @@
         <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3938,22 +3930,22 @@
         <v>8</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -3979,22 +3971,22 @@
         <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -4005,37 +3997,37 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -4061,22 +4053,22 @@
         <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M88" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -4087,37 +4079,37 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M89" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -4128,37 +4120,37 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M90" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -4167,7 +4159,9 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
       <c r="C91" t="n">
         <v>114</v>
       </c>
@@ -4210,37 +4204,37 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M92" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93">
@@ -4251,37 +4245,37 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -4292,37 +4286,37 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M94" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95">
@@ -4348,22 +4342,22 @@
         <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
@@ -4374,37 +4368,37 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F96" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M96" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -4430,22 +4424,22 @@
         <v>52</v>
       </c>
       <c r="H97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M97" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
@@ -4456,37 +4450,37 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F98" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G98" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M98" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
     </row>
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
         <v>19</v>
@@ -672,37 +672,37 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +713,37 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -754,37 +754,37 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +795,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -877,37 +877,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -916,7 +916,9 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" t="n">
         <v>27</v>
       </c>
@@ -924,31 +926,31 @@
         <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +961,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1002,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1039,7 +1041,9 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" t="n">
         <v>116</v>
       </c>
@@ -1123,37 +1127,37 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1176,25 +1180,25 @@
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1205,37 +1209,37 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1246,37 +1250,37 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1328,37 +1332,37 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1369,37 +1373,37 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1410,37 +1414,37 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -1451,37 +1455,37 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1492,37 +1496,37 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1533,37 +1537,37 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1574,37 +1578,37 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1820,37 +1824,37 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1861,16 +1865,16 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1943,37 +1947,37 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1984,37 +1988,37 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -2075,7 +2079,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
@@ -2230,37 +2234,37 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F44" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M44" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
@@ -2271,37 +2275,37 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -2321,28 +2325,28 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2353,37 +2357,37 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -2394,37 +2398,37 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2476,37 +2480,37 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
@@ -2517,13 +2521,13 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
         <v>14</v>
@@ -2558,37 +2562,37 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2597,41 +2601,39 @@
           <t>航運業右下</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -2724,37 +2726,37 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M56" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
@@ -2765,37 +2767,37 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2856,28 +2858,28 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -2929,37 +2931,37 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -2968,41 +2970,39 @@
           <t>資訊服務業右下</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3013,37 +3013,37 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -3177,37 +3177,37 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -3259,37 +3259,37 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -3432,28 +3432,28 @@
         <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M73" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -3505,37 +3505,37 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -3587,37 +3587,37 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3792,13 +3792,13 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82" t="n">
         <v>38</v>
@@ -3833,37 +3833,37 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -3997,37 +3997,37 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -4038,37 +4038,37 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -4079,37 +4079,37 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M89" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
@@ -4120,37 +4120,37 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M90" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
@@ -4163,37 +4163,37 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M91" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
@@ -4204,37 +4204,37 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M92" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93">
@@ -4254,28 +4254,28 @@
         <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4284,39 +4284,41 @@
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>3</v>
+      </c>
       <c r="C94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M94" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -4327,37 +4329,37 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M95" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -4368,37 +4370,37 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E96" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F96" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M96" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -4450,37 +4452,37 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M98" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99">
@@ -4491,37 +4493,37 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -4530,7 +4532,9 @@
           <t>食品工業右下</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
       <c r="C100" t="n">
         <v>18</v>
       </c>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
     </row>
@@ -508,10 +508,10 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -631,13 +631,13 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>19</v>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -672,37 +672,37 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -760,31 +760,31 @@
         <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +795,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -916,14 +916,12 @@
           <t>化學工業右下</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
         <v>28</v>
@@ -950,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="M12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -961,37 +959,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1002,37 +1000,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1045,37 +1043,37 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M15" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
@@ -1086,37 +1084,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1373,37 +1371,37 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1414,37 +1412,37 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -1455,37 +1453,37 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
+        <v>36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>36</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+      <c r="F25" t="n">
+        <v>36</v>
+      </c>
+      <c r="G25" t="n">
+        <v>36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>36</v>
+      </c>
+      <c r="I25" t="n">
+        <v>36</v>
+      </c>
+      <c r="J25" t="n">
+        <v>36</v>
+      </c>
+      <c r="K25" t="n">
+        <v>36</v>
+      </c>
+      <c r="L25" t="n">
+        <v>36</v>
+      </c>
+      <c r="M25" t="n">
         <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>35</v>
-      </c>
-      <c r="E25" t="n">
-        <v>35</v>
-      </c>
-      <c r="F25" t="n">
-        <v>34</v>
-      </c>
-      <c r="G25" t="n">
-        <v>34</v>
-      </c>
-      <c r="H25" t="n">
-        <v>34</v>
-      </c>
-      <c r="I25" t="n">
-        <v>34</v>
-      </c>
-      <c r="J25" t="n">
-        <v>34</v>
-      </c>
-      <c r="K25" t="n">
-        <v>34</v>
-      </c>
-      <c r="L25" t="n">
-        <v>34</v>
-      </c>
-      <c r="M25" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1535,7 +1533,9 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
       <c r="C27" t="n">
         <v>14</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1578,37 +1578,37 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1660,37 +1660,37 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1701,37 +1701,37 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1947,37 +1947,37 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -1988,37 +1988,37 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2029,37 +2029,37 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2070,13 +2070,13 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>4</v>
@@ -2100,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2234,37 +2234,37 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M44" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
@@ -2275,37 +2275,37 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M45" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -2316,37 +2316,37 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2357,19 +2357,19 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F47" t="n">
         <v>33</v>
       </c>
       <c r="G47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H47" t="n">
         <v>32</v>
@@ -2398,37 +2398,37 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2530,28 +2530,28 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -2603,37 +2603,37 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -2644,37 +2644,37 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -2726,37 +2726,37 @@
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -2767,37 +2767,37 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2858,28 +2858,28 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2972,37 +2972,37 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3013,37 +3013,37 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3218,37 +3218,37 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M68" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -3259,37 +3259,37 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -3382,37 +3382,37 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3432,28 +3432,28 @@
         <v>19</v>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -3464,37 +3464,37 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3505,37 +3505,37 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
@@ -3546,37 +3546,37 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3587,37 +3587,37 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -3801,28 +3801,28 @@
         <v>39</v>
       </c>
       <c r="F82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M82" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -3874,37 +3874,37 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -3956,37 +3956,37 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -3997,37 +3997,37 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -4038,37 +4038,37 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M88" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4079,37 +4079,37 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4120,37 +4120,37 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M90" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
@@ -4159,9 +4159,7 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
         <v>110</v>
       </c>
@@ -4254,28 +4252,28 @@
         <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -4285,7 +4283,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>47</v>
@@ -4329,37 +4327,37 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M95" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -4370,37 +4368,37 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M96" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -4409,39 +4407,41 @@
           <t>電腦及週邊設備業右下</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
       <c r="C97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M97" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -4452,37 +4452,37 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M98" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -4493,37 +4493,37 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -4532,9 +4532,7 @@
           <t>食品工業右下</t>
         </is>
       </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
         <v>18</v>
       </c>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
     </row>
@@ -508,37 +508,37 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -631,34 +631,34 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" t="n">
         <v>18</v>
@@ -672,37 +672,37 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +713,37 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -754,34 +754,34 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" t="n">
         <v>29</v>
@@ -795,37 +795,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +918,37 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +959,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1000,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1040,40 +1040,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M15" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
@@ -1084,37 +1084,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M16" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1289,37 +1289,37 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1330,37 +1330,37 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1371,37 +1371,37 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
         <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1410,39 +1410,41 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -1453,34 +1455,34 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M25" t="n">
         <v>35</v>
@@ -1533,41 +1535,39 @@
           <t>數位雲端右下</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1608,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1660,37 +1660,37 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1701,37 +1701,37 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1950,34 +1950,34 @@
         <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -2100,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2193,37 +2193,37 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M43" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2232,39 +2232,41 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
       <c r="C44" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M44" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -2275,37 +2277,37 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -2316,37 +2318,37 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2357,16 +2359,16 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n">
         <v>32</v>
@@ -2398,37 +2400,37 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2439,37 +2441,37 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2480,37 +2482,37 @@
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2603,37 +2605,37 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -2644,37 +2646,37 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M54" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2685,37 +2687,37 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2767,37 +2769,37 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2849,37 +2851,37 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -2890,37 +2892,37 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2972,37 +2974,37 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -3013,37 +3015,37 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -3177,37 +3179,37 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M67" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -3259,37 +3261,37 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -3300,37 +3302,37 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3341,37 +3343,37 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3382,37 +3384,37 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3464,37 +3466,37 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3505,37 +3507,37 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L75" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M75" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3587,37 +3589,37 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3792,37 +3794,37 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M82" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
@@ -3833,37 +3835,37 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -3874,37 +3876,37 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -3956,37 +3958,37 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -4038,37 +4040,37 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M88" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -4079,37 +4081,37 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
@@ -4120,37 +4122,37 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -4159,39 +4161,41 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
       <c r="C91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M91" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
@@ -4202,37 +4206,37 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M92" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93">
@@ -4243,37 +4247,37 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M93" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4282,41 +4286,39 @@
           <t>電機機械右下</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M94" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95">
@@ -4327,37 +4329,37 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M95" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -4368,37 +4370,37 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M96" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -4407,41 +4409,39 @@
           <t>電腦及週邊設備業右下</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -4452,37 +4452,37 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
     </row>
@@ -508,37 +508,37 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -631,37 +631,37 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -754,37 +754,37 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +795,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +836,37 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -877,37 +877,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -918,37 +918,37 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +959,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1000,37 +1000,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="n">
         <v>116</v>
@@ -1084,37 +1084,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M16" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1289,37 +1289,37 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1330,37 +1330,37 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1371,37 +1371,37 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1410,9 +1410,7 @@
           <t>建材營造右下</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>29</v>
       </c>
@@ -1455,37 +1453,37 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1537,31 +1535,31 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L27" t="n">
         <v>16</v>
@@ -1578,28 +1576,28 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
         <v>7</v>
@@ -1947,7 +1945,7 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>28</v>
@@ -1988,37 +1986,37 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -2029,37 +2027,37 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2070,37 +2068,37 @@
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2111,37 +2109,37 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2152,37 +2150,37 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2220,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="L43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M43" t="n">
         <v>20</v>
@@ -2232,41 +2230,39 @@
           <t>生技醫療業右下</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M44" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -2324,25 +2320,25 @@
         <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
         <v>9</v>
@@ -2362,34 +2358,34 @@
         <v>34</v>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -2523,37 +2519,37 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -2564,37 +2560,37 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2646,37 +2642,37 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2687,37 +2683,37 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2769,37 +2765,37 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2851,37 +2847,37 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M59" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2892,37 +2888,37 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3179,37 +3175,37 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -3220,37 +3216,37 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M68" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
@@ -3261,37 +3257,37 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M69" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -3507,37 +3503,37 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L75" t="n">
         <v>20</v>
       </c>
       <c r="M75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -3589,37 +3585,37 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -3794,37 +3790,37 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M82" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -3835,37 +3831,37 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -3876,37 +3872,37 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -3958,37 +3954,37 @@
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -3999,37 +3995,37 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M87" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
@@ -4040,37 +4036,37 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -4081,37 +4077,37 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -4122,37 +4118,37 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M90" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
@@ -4161,41 +4157,39 @@
           <t>電子零組件業右下</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M91" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92">
@@ -4206,37 +4200,37 @@
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M92" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93">
@@ -4247,37 +4241,37 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M93" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -4288,37 +4282,37 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M94" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95">
@@ -4329,37 +4323,37 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M95" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
@@ -4370,37 +4364,37 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M96" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
@@ -4411,37 +4405,37 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M97" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98">
@@ -4452,37 +4446,37 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M98" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
     </row>
@@ -549,37 +549,37 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -670,39 +670,41 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M6" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -713,37 +715,37 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -754,37 +756,37 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -795,37 +797,37 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -836,37 +838,37 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -918,37 +920,37 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -959,37 +961,37 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1039,41 +1041,39 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M15" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -1084,37 +1084,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1371,37 +1371,37 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1453,37 +1453,37 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M25" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1494,37 +1494,37 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1535,37 +1535,37 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1597,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>7</v>
@@ -1943,39 +1943,41 @@
           <t>汽車工業右下</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -1986,535 +1988,537 @@
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M38" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="D44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="K44" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="M44" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="G45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="H45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="J45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M45" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L46" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M46" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K47" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M47" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>紡織纖維右下</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="L48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2555,1811 +2559,1817 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M56" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
+          <t>觀光事業右下</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="M57" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M62" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="K68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="L68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M68" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M69" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="L70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M76" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
+          <t>金融業右下</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
+          <t>鋼鐵工業右下</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="L83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="M83" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>電器電纜右下</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M86" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M88" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M89" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="J90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="K90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="M90" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="H91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="J91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="K91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="L91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="M91" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>電子零組件業右下</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
       <c r="C92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="E92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="I92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="J92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="K92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="L92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="M92" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M93" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="K94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="L94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M94" t="n">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="I95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="K95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M95" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -4400,206 +4410,247 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M97" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="L98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M98" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="L99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M99" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M100" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業平</t>
+          <t>食品工業右下</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M101" t="n">
-        <v>4</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3</v>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Result/analyze.xlsx
+++ b/Result/analyze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,57 +446,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-17</t>
         </is>
       </c>
     </row>
@@ -508,37 +508,37 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -590,37 +590,37 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -631,37 +631,37 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -670,41 +670,39 @@
           <t>其他右下</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -756,37 +754,37 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -795,39 +793,41 @@
           <t>其他電子業右下</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -879,37 +879,37 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1002,37 +1002,37 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1041,39 +1041,41 @@
           <t>半導體業右下</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M15" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1084,37 +1086,37 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -1125,37 +1127,37 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1166,9 @@
           <t>塑膠工業右下</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" t="n">
         <v>18</v>
       </c>
@@ -1207,37 +1211,37 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1248,37 +1252,37 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1289,37 +1293,37 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1330,37 +1334,37 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1412,37 +1416,37 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1453,37 +1457,37 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M25" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1494,37 +1498,37 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1535,37 +1539,37 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>7</v>
@@ -1658,37 +1662,37 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1699,496 +1703,496 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>橡膠工業右上</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>橡膠工業平</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>水泥工業右下</t>
+          <t>橡膠工業平</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>水泥工業平</t>
+          <t>水泥工業右下</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右上</t>
+          <t>水泥工業平</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
+          <t>汽車工業右上</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>汽車工業平</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M38" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右上</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業右下</t>
+          <t>油電燃氣業右上</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>油電燃氣業平</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>油電燃氣業右下</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右下</t>
+          <t>油電燃氣業平</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>玻璃陶瓷平</t>
+          <t>玻璃陶瓷右下</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2229,255 +2233,257 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="F45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="G45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="H45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I45" t="n">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="J45" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="K45" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="L45" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M45" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>生技醫療業右下</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="E46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="G46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="H46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="J46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="K46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="L46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M46" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K47" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M47" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I48" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="M48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>紡織纖維平</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>紡織纖維右下</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M49" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>紡織纖維平</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2518,1899 +2524,1901 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>綠能環保右上</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>綠能環保平</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M52" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右下</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>觀光事業右下</t>
+          <t>觀光事業右上</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M57" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>觀光事業平</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>觀光事業右下</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="K58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>觀光事業平</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右下</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>貿易百貨平</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>資訊服務業平</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右上</t>
+          <t>資訊服務業平</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>農業科技業右下</t>
+          <t>農業科技業右上</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>農業科技業平</t>
+          <t>農業科技業右下</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>農業科技業平</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M69" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>通信網路業右下</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="L70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M70" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>造紙工業右下</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="L71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M71" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>造紙工業平</t>
+          <t>造紙工業右下</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右上</t>
+          <t>造紙工業平</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>運動休閒右下</t>
+          <t>運動休閒右上</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>運動休閒平</t>
+          <t>運動休閒右下</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>運動休閒平</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="L76" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M76" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M77" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>金融保險平</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>金融保險右下</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>金融業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>金融業右下</t>
+          <t>金融業右上</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>金融業平</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>金融業右下</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>金融業平</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
+          <t>鋼鐵工業右下</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="L84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="M84" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>電器電纜右下</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
+          <t>電器電纜右上</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>電器電纜平</t>
+          <t>電器電纜右下</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電器電纜平</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>電子通路業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>電子通路業右下</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M90" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="M91" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="E92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="F92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="G92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="J92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="K92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="L92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="M92" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
+          <t>電子零組件業右下</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
       <c r="C93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="D93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="F93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="H93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="I93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="J93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="K93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="L93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="M93" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="I94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="K94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M94" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>電機機械右下</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="H95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="I95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="K95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="L95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="M95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電機機械右下</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M96" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -4451,206 +4459,251 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M98" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>電腦及週邊設備業右下</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
       <c r="C99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="K99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M99" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>食品工業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="K100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M100" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>食品工業右下</t>
+          <t>食品工業右上</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
+          <t>食品工業右下</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>19</v>
+      </c>
+      <c r="D102" t="n">
+        <v>19</v>
+      </c>
+      <c r="E102" t="n">
+        <v>19</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19</v>
+      </c>
+      <c r="G102" t="n">
+        <v>19</v>
+      </c>
+      <c r="H102" t="n">
+        <v>19</v>
+      </c>
+      <c r="I102" t="n">
+        <v>19</v>
+      </c>
+      <c r="J102" t="n">
+        <v>19</v>
+      </c>
+      <c r="K102" t="n">
+        <v>19</v>
+      </c>
+      <c r="L102" t="n">
+        <v>19</v>
+      </c>
+      <c r="M102" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>食品工業平</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>3</v>
-      </c>
-      <c r="E102" t="n">
-        <v>3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
-        <v>3</v>
-      </c>
-      <c r="H102" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3</v>
-      </c>
-      <c r="L102" t="n">
-        <v>3</v>
-      </c>
-      <c r="M102" t="n">
-        <v>3</v>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K103" t="n">
+        <v>4</v>
+      </c>
+      <c r="L103" t="n">
+        <v>4</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
